--- a/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>426,71%</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>195,2%</t>
+          <t>-25,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 38,32</t>
+          <t>0,0; 9,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 25,74</t>
+          <t>-10,44; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 34,83</t>
+          <t>-5,54; 5,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-5,92; 18,8</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-71,34; 354,73</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,18; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-55,84; 1305,65</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>133,14%</t>
+          <t>-17,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>127,37%</t>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-34,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 15,23</t>
+          <t>-7,26; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 19,82</t>
+          <t>-4,03; 8,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 19,59</t>
+          <t>-4,11; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 211,67</t>
+          <t>-20,87; 2,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 356,46</t>
+          <t>-67,32; 97,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 321,73</t>
+          <t>-43,03; 230,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,55; 229,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-78,49; 32,03</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>82,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-37,27%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 11,88</t>
+          <t>-3,48; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 16,0</t>
+          <t>-0,94; 11,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 12,14</t>
+          <t>-3,93; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 132,13</t>
+          <t>-11,41; 2,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 259,26</t>
+          <t>-41,41; 243,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 143,49</t>
+          <t>-15,94; 379,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-34,74; 193,64</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-71,7; 39,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 137,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,27; 197,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 191,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,23</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-25,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 4,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 7,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 5,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 1,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-34,01; 113,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 166,14</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 144,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; 21,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-25,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>65,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.86015167656071</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.720950156684062</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.922922937892647</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>23.06663097535512</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1261697938957542</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.333674586322432</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.675061949168762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 5,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 5,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 18,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-55,84; 1305,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-31.92417428032097</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.430289642618475</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-10.9825694436495</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.4089875782422812</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>41.70968929187782</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.01605909550542</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>31.86117754444727</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>61.95499839826226</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>36.80215153004098</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-17,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-34,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 3,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,03; 8,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 7,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,87; 2,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-67,32; 97,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-43,03; 230,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-52,55; 229,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-78,49; 32,03</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.661222886091431</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.3940518824441</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.70764405340449</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3849832077615384</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.5000009333267461</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.274510819921573</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.259163053950387</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.01658508238569029</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>39,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>82,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>35,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-37,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.607192828790664</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.344876852267997</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.2871095263986272</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-22.18637712599184</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3611905175707208</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.09396855743990534</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.09382313161764853</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.593394731127017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 8,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 11,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 9,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 2,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-41,41; 243,45</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-15,94; 379,11</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,74; 193,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-71,7; 39,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.10738739641533</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.81991494114668</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>22.99233377986675</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.71893061222696</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.767922136712145</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.845513778327926</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.201926396657432</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8744604070163078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +817,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.841444636921189</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.138593546005731</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.123580325369795</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.841097948880863</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7162231544601908</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8766515084330452</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5041515576805924</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3965786527344071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.0732844402097</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.968641238864414</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.136979352109538</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.01191709091575</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3363753571904483</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1400400066814658</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3144844278907351</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7343081038245077</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.83150443508642</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.5414762099329</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.7759841342919</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.102553330829923</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.974141661019642</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.251959041963731</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.367623550181443</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.276632176416115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>48,81%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-25,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 7,04</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 5,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 1,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-34,01; 113,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 166,14</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 144,2</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-58,35; 21,04</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.499603921651312</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.086827789690187</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.80515063023244</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.396279991685465</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6809976494470209</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8520373653636639</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9011505785114374</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07448094735517526</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.017041845351427</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.786723690551257</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.338790180729008</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.70698043441189</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.08359969437588263</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.09555512537799082</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.06708336206242595</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5413725889587886</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.284445149808</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.17224276551394</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.79137024758874</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.187925497013813</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.194589292897368</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.147324789673399</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.512449430659397</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4583210540624107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
